--- a/Basededatos/FPC1C2.xlsx
+++ b/Basededatos/FPC1C2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +27,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -45,58 +44,58 @@
     <t>FECHA</t>
   </si>
   <si>
+    <t>C1 H1 %</t>
+  </si>
+  <si>
+    <t>C1 H2 %</t>
+  </si>
+  <si>
+    <t>C1 H3 %</t>
+  </si>
+  <si>
+    <t>C1 H0 %</t>
+  </si>
+  <si>
+    <t>C1 H1 pF</t>
+  </si>
+  <si>
+    <t>C1 H2 pF</t>
+  </si>
+  <si>
+    <t>C1 H3 pF</t>
+  </si>
+  <si>
+    <t>C1 H0 pF</t>
+  </si>
+  <si>
+    <t>C2 H1 %</t>
+  </si>
+  <si>
+    <t>C2 H2 %</t>
+  </si>
+  <si>
+    <t>C2 H3 %</t>
+  </si>
+  <si>
+    <t>C2 H0 %</t>
+  </si>
+  <si>
+    <t>C2 H1 pF</t>
+  </si>
+  <si>
+    <t>C2 H2 pF</t>
+  </si>
+  <si>
+    <t>C2 H3 pF</t>
+  </si>
+  <si>
+    <t>C2 NH0 pF</t>
+  </si>
+  <si>
     <t>146660T3</t>
   </si>
   <si>
-    <t>C1 H1 %</t>
-  </si>
-  <si>
-    <t>C1 H2 %</t>
-  </si>
-  <si>
-    <t>C1 H3 %</t>
-  </si>
-  <si>
-    <t>C1 H1 pF</t>
-  </si>
-  <si>
-    <t>C1 H2 pF</t>
-  </si>
-  <si>
-    <t>C1 H3 pF</t>
-  </si>
-  <si>
-    <t>C2 H1 %</t>
-  </si>
-  <si>
-    <t>C2 H2 %</t>
-  </si>
-  <si>
-    <t>C2 H3 %</t>
-  </si>
-  <si>
-    <t>C2 H1 pF</t>
-  </si>
-  <si>
-    <t>C2 H2 pF</t>
-  </si>
-  <si>
-    <t>C2 H3 pF</t>
-  </si>
-  <si>
     <t>230531-01</t>
-  </si>
-  <si>
-    <t>C1 H0 %</t>
-  </si>
-  <si>
-    <t>C1 H0 pF</t>
-  </si>
-  <si>
-    <t>C2 H0 %</t>
-  </si>
-  <si>
-    <t>C2 NH0 pF</t>
   </si>
 </sst>
 </file>
@@ -106,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,10 +480,10 @@
   <dimension ref="B2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -494,7 +493,7 @@
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="23.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -502,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -523,36 +522,36 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>44693</v>
@@ -606,9 +605,9 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>43582</v>
@@ -662,9 +661,9 @@
         <v>715</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>42139</v>
@@ -718,9 +717,9 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>41957</v>
@@ -774,7 +773,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="B7" s="5">
         <v>364076</v>
       </c>
@@ -830,7 +829,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="B8" s="5">
         <v>364076</v>
       </c>
@@ -886,7 +885,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="B9" s="5">
         <v>364076</v>
       </c>
@@ -942,7 +941,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="B10" s="5">
         <v>364076</v>
       </c>
@@ -998,9 +997,9 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19">
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>45489</v>
@@ -1054,9 +1053,9 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>44738</v>
@@ -1110,9 +1109,9 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19">
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>44179</v>
@@ -1166,9 +1165,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19">
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>42046</v>
@@ -1222,7 +1221,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19">
       <c r="B15" s="5">
         <v>338118</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="B16" s="5">
         <v>338118</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19">
       <c r="B17" s="5">
         <v>338118</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19">
       <c r="B18" s="5">
         <v>338118</v>
       </c>
